--- a/KBS/report/DesiredClub-Run0.xlsx
+++ b/KBS/report/DesiredClub-Run0.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t xml:space="preserve">Step No</t>
   </si>
@@ -56,10 +56,7 @@
     <t xml:space="preserve">Pending LCI Authorization is clicked successfully</t>
   </si>
   <si>
-    <t xml:space="preserve">Driver could not found !!!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAILURE</t>
+    <t xml:space="preserve">View Application is clicked successfully</t>
   </si>
   <si>
     <t xml:space="preserve">Element with text :Logout is found and clicked successfully..</t>
@@ -233,7 +230,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -241,7 +238,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -252,7 +249,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>

--- a/KBS/report/DesiredClub-Run0.xlsx
+++ b/KBS/report/DesiredClub-Run0.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t xml:space="preserve">Step No</t>
   </si>
@@ -56,13 +56,13 @@
     <t xml:space="preserve">Pending LCI Authorization is clicked successfully</t>
   </si>
   <si>
-    <t xml:space="preserve">Driver could not found !!!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAILURE</t>
+    <t xml:space="preserve">View Application is clicked successfully</t>
   </si>
   <si>
     <t xml:space="preserve">Element with text :Logout is found and clicked successfully..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Logout is successfull</t>
   </si>
   <si>
     <t xml:space="preserve">The application is closed successfully..</t>
@@ -233,7 +233,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -241,7 +241,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -252,9 +252,20 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>4</v>
       </c>
     </row>

--- a/KBS/report/DesiredClub-Run0.xlsx
+++ b/KBS/report/DesiredClub-Run0.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t xml:space="preserve">Step No</t>
   </si>
@@ -56,7 +56,10 @@
     <t xml:space="preserve">Pending LCI Authorization is clicked successfully</t>
   </si>
   <si>
-    <t xml:space="preserve">View Application is clicked successfully</t>
+    <t xml:space="preserve">Driver could not found !!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAILURE</t>
   </si>
   <si>
     <t xml:space="preserve">Element with text :Logout is found and clicked successfully..</t>
@@ -233,7 +236,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -241,7 +244,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -252,7 +255,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -263,7 +266,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>

--- a/KBS/report/DesiredClub-Run0.xlsx
+++ b/KBS/report/DesiredClub-Run0.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t xml:space="preserve">Step No</t>
   </si>
@@ -35,31 +35,13 @@
     <t xml:space="preserve">Element with id :PageContent_Login1_txtPassword is found and value :password0 entered successfully..</t>
   </si>
   <si>
-    <t xml:space="preserve">Element with ID :PageContent_Login1_btnSubmit is found and clicked successfully..</t>
+    <t xml:space="preserve">Element with ID :TS_PageContent_Login1_btnSubmitcould not be found..</t>
   </si>
   <si>
-    <t xml:space="preserve">Login is Successful for Userid: 4141201</t>
+    <t xml:space="preserve">FAILURE</t>
   </si>
   <si>
-    <t xml:space="preserve">Pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Element with ID :a_3_1_28 is found and clicked successfully..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Element with ID :a_3_2_40 is found and clicked successfully..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Element with ID :lblSearchOptionTitle is found and clicked successfully..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pending LCI Authorization is clicked successfully</t>
-  </si>
-  <si>
-    <t xml:space="preserve">View Application is clicked successfully</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Element with text :Logout is found and clicked successfully..</t>
+    <t xml:space="preserve">Driver could not be found</t>
   </si>
   <si>
     <t xml:space="preserve">The application is closed successfully..</t>
@@ -164,7 +146,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -172,10 +154,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -189,72 +171,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
